--- a/Lab3.2.xlsx
+++ b/Lab3.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -415,6 +415,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,9 +439,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -454,6 +454,919 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Начало</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Лист1!$L$8,Лист1!$N$8,Лист1!$P$8,Лист1!$R$8,Лист1!$T$8,Лист1!$V$8,Лист1!$X$8,Лист1!$Z$8,Лист1!$AB$8,Лист1!$AD$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.000000447034854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6175-42CB-BEB2-C38BAA118275}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Время</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6175-42CB-BEB2-C38BAA118275}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Резерв</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$63:$B$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-6175-42CB-BEB2-C38BAA118275}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="391438896"/>
+        <c:axId val="391441192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="391438896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391441192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="391441192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391438896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,6 +1407,36 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>362857</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>147865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>72571</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>169636</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -764,39 +1707,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="84" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="32" max="32" width="11.28515625" customWidth="1"/>
-    <col min="34" max="34" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="32" max="32" width="11.33203125" customWidth="1"/>
+    <col min="34" max="34" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
       <c r="B2" s="2">
         <v>1.2</v>
       </c>
@@ -827,9 +1770,9 @@
       <c r="K2" s="2">
         <v>5.6</v>
       </c>
-      <c r="L2" s="20"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -863,11 +1806,11 @@
       <c r="K3" s="1">
         <v>12</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="22">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -901,9 +1844,9 @@
       <c r="K4" s="1">
         <v>10</v>
       </c>
-      <c r="L4" s="22"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -937,10 +1880,10 @@
       <c r="K5" s="1">
         <v>0.5</v>
       </c>
-      <c r="L5" s="23"/>
-    </row>
-    <row r="6" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="L5" s="24"/>
+    </row>
+    <row r="6" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1978,7 @@
       <c r="AG7" s="4"/>
       <c r="AH7" s="6"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>1.3411044318817344E-6</v>
       </c>
@@ -1130,7 +2073,7 @@
       <c r="AG8" s="8"/>
       <c r="AH8" s="10"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1165,7 +2108,7 @@
       <c r="AG9" s="8"/>
       <c r="AH9" s="10"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1205,7 +2148,7 @@
         <v>77.000001341104422</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1240,7 +2183,7 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="10"/>
     </row>
-    <row r="12" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1281,7 +2224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1326,7 +2269,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1371,7 +2314,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -1416,7 +2359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1463,7 +2406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1510,7 +2453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1557,7 +2500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1604,7 +2547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1651,7 +2594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1698,7 +2641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1745,7 +2688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1792,7 +2735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1839,7 +2782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1886,7 +2829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f>$B$5</f>
         <v>0.05</v>
@@ -1936,7 +2879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" s="8">
         <f>$C$5</f>
@@ -1986,7 +2929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8">
@@ -2036,7 +2979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -2086,7 +3029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2136,7 +3079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -2186,7 +3129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2236,7 +3179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -2286,7 +3229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2336,7 +3279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -2386,7 +3329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2430,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -2474,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2518,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -2564,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2610,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -2656,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -2702,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -2748,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -2794,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -2840,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -2886,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -2932,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -2978,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -3024,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -3070,14 +4013,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -3091,7 +4034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -3102,11 +4045,11 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <f>C54-B54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E54:E59" si="2">C54-B54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2</v>
       </c>
@@ -3117,11 +4060,11 @@
         <v>10</v>
       </c>
       <c r="E55">
-        <f>C55-B55</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3132,11 +4075,11 @@
         <v>13</v>
       </c>
       <c r="E56">
-        <f>C56-B56</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4</v>
       </c>
@@ -3147,11 +4090,11 @@
         <v>18</v>
       </c>
       <c r="E57">
-        <f>C57-B57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5</v>
       </c>
@@ -3162,11 +4105,11 @@
         <v>28</v>
       </c>
       <c r="E58">
-        <f>C58-B58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>6</v>
       </c>
@@ -3177,22 +4120,22 @@
         <v>40</v>
       </c>
       <c r="E59">
-        <f>C59-B59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A62" s="17"/>
       <c r="B62" t="s">
         <v>48</v>
       </c>
@@ -3206,7 +4149,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>12</v>
       </c>
@@ -3226,47 +4169,47 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>13</v>
       </c>
       <c r="B64">
-        <f t="shared" ref="B64:B72" si="2">C56-F64-$B$54</f>
+        <f t="shared" ref="B64:B65" si="3">C56-F64-$B$54</f>
         <v>1</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C72" si="3">B56-$B$54-F64</f>
+        <f t="shared" ref="C64:C65" si="4">B56-$B$54-F64</f>
         <v>0</v>
       </c>
       <c r="D64">
-        <f t="shared" ref="D64:D72" si="4">B56-$C$54-F64</f>
+        <f t="shared" ref="D64:D65" si="5">B56-$C$54-F64</f>
         <v>0</v>
       </c>
       <c r="F64" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>14</v>
       </c>
       <c r="B65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F65" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>24</v>
       </c>
@@ -3286,7 +4229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>25</v>
       </c>
@@ -3306,7 +4249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>34</v>
       </c>
@@ -3326,7 +4269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>36</v>
       </c>
@@ -3346,7 +4289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>45</v>
       </c>
@@ -3366,7 +4309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>46</v>
       </c>
@@ -3386,7 +4329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>56</v>
       </c>
